--- a/biology/Biologie cellulaire et moléculaire/Translocation_robertsonienne/Translocation_robertsonienne.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Translocation_robertsonienne/Translocation_robertsonienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fusion robertsonienne ou translocation robertsonienne est une anomalie de structure caractérisée par la fusion de deux chromosomes acrocentriques (type de chromosomes dont le centromère se situe à l'extrémité du bras q (ou bras long), le bras court est très petit et se présente sous la forme d'une masse condensée appelée satellite ; celle-ci est rattachée au chromosome par une zone de restriction secondaire) par recombinaison non réciproque entre deux chromosomes homologues ou non homologues. Les chromosomes impliqués dans les translocations robertsoniennes sont les chromosomes acrocentriques 13, 14, 15, 21 et 22. 
 Il résultera de cette translocation un chromosome avec un seul centromère et les deux bras longs des chromosomes acrocentriques, et un chromosome avec les deux bras courts des chromosomes acrocentriques, celui-ci est généralement perdu lors des divisions cellulaires ultérieures. Le porteur d'une telle translocation a un caryotype noté : 45,XY,rob(14;21), si par exemple la translocation a eu lieu entre les chromosomes 14 et 21.
